--- a/medicine/Psychotrope/Avèze_(liqueur)/Avèze_(liqueur).xlsx
+++ b/medicine/Psychotrope/Avèze_(liqueur)/Avèze_(liqueur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Av%C3%A8ze_(liqueur)</t>
+          <t>Avèze_(liqueur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Avèze est la marque de liqueur de gentiane fabriquée à Riom-ès-Montagnes dans le département du Cantal (Massif central).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Av%C3%A8ze_(liqueur)</t>
+          <t>Avèze_(liqueur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un apéritif à base d’alcool[1] avec plusieurs déclinaisons[2]. Les racines de gentiane jaune (Gentiana lutea) sont récoltées après plusieurs années de croissance (jusqu'à vingt ans[3]) entre fin mai et mi-octobre dans des espaces préservés entre 900 et 1 700 mètres d'altitude. Triées puis lavées à la main, les racines sont ensuite disposées de façon inclinée pour l'égouttage. Après avoir été découpées en cossettes, elles macèrent dans de l'alcool pendant au moins neuf mois avant filtration puis embouteillage[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un apéritif à base d’alcool avec plusieurs déclinaisons. Les racines de gentiane jaune (Gentiana lutea) sont récoltées après plusieurs années de croissance (jusqu'à vingt ans) entre fin mai et mi-octobre dans des espaces préservés entre 900 et 1 700 mètres d'altitude. Triées puis lavées à la main, les racines sont ensuite disposées de façon inclinée pour l'égouttage. Après avoir été découpées en cossettes, elles macèrent dans de l'alcool pendant au moins neuf mois avant filtration puis embouteillage,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Av%C3%A8ze_(liqueur)</t>
+          <t>Avèze_(liqueur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1930, la publicité vante les bienfaits de l'« Auvergne Gentiane », liée par l'image à la longévité[6]. L'influente association des Auvergnats de Paris a aussi contribué à la promotion de la fée jaune à la capitale[7]. L'amer auvergnat à base de gentiane est en vogue dans les années 2020[7] notamment pour le cocktail Spritz à la mode.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1930, la publicité vante les bienfaits de l'« Auvergne Gentiane », liée par l'image à la longévité. L'influente association des Auvergnats de Paris a aussi contribué à la promotion de la fée jaune à la capitale. L'amer auvergnat à base de gentiane est en vogue dans les années 2020 notamment pour le cocktail Spritz à la mode.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Av%C3%A8ze_(liqueur)</t>
+          <t>Avèze_(liqueur)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé par Émile Refouvelet à Riom-ès-Montagne en 1929[8],[9],[5], l'amer blond des Monts du Cantal (avec les marques Salers, Avèze et Couderc)[10] a d'abord porté le nom d'« Auvergne Gentiane » dès 1930[9],[11],[12],[5]. La marque Avèze est lancée en 1962[9].
-Elle obtient des récompenses aux expositions d'Aurillac et de Clermont-Ferrand ainsi qu'en 1937 à l'exposition internationale de Paris[11]. Dès 1939, la production annuelle de l'Auvergne Gentiane est de 200 000 bouteilles depuis les Établissements E. Refouvelet[11].
-L'« espace Avèze », combinant un musée et un lieu de dégustation[13], a été créé à côté du lieu de fabrication[14].
-Elle est acquise par le groupe « La Martiniquaise » en 2009[15].
-Avèze est le seul amer de gentiane ayant obtenu le label « Produit du parc naturel régional des Volcans d'Auvergne »[16] suivant pour cela une charte de qualité[17],[18], ses racines proviennent exclusivement de territoire du parc régional[7],[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé par Émile Refouvelet à Riom-ès-Montagne en 1929 l'amer blond des Monts du Cantal (avec les marques Salers, Avèze et Couderc) a d'abord porté le nom d'« Auvergne Gentiane » dès 1930. La marque Avèze est lancée en 1962.
+Elle obtient des récompenses aux expositions d'Aurillac et de Clermont-Ferrand ainsi qu'en 1937 à l'exposition internationale de Paris. Dès 1939, la production annuelle de l'Auvergne Gentiane est de 200 000 bouteilles depuis les Établissements E. Refouvelet.
+L'« espace Avèze », combinant un musée et un lieu de dégustation, a été créé à côté du lieu de fabrication.
+Elle est acquise par le groupe « La Martiniquaise » en 2009.
+Avèze est le seul amer de gentiane ayant obtenu le label « Produit du parc naturel régional des Volcans d'Auvergne » suivant pour cela une charte de qualité ses racines proviennent exclusivement de territoire du parc régional,.
 </t>
         </is>
       </c>
